--- a/PMP/Release Planning/RP_Travel_Advisor_Web_Application (4).xlsx
+++ b/PMP/Release Planning/RP_Travel_Advisor_Web_Application (4).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\Travel-Advisor-Web-Application\PMP\Release Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A370CAE-C5AE-4509-9717-0147FC55F385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6222A3F3-B777-4496-A75F-D4A9DCF0FB95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{CFD005F8-E5E8-424A-816C-4C20C8DEA619}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{CFD005F8-E5E8-424A-816C-4C20C8DEA619}"/>
   </bookViews>
   <sheets>
     <sheet name="planning and status" sheetId="1" r:id="rId1"/>
@@ -707,206 +707,206 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1252,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDEDA01D-2DD4-4A30-88FD-82CF201765CB}">
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21:T21"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,190 +1272,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="24" x14ac:dyDescent="0.4">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="80" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="L1" s="70" t="s">
+      <c r="D1" s="22"/>
+      <c r="L1" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="72"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="36"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="84" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="L2" s="64" t="s">
+      <c r="D2" s="26"/>
+      <c r="L2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="64" t="s">
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="66"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="L3" s="73" t="s">
+      <c r="D3" s="26"/>
+      <c r="L3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="73">
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="37">
         <v>45693</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="77"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="41"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="84" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="L4" s="64" t="s">
+      <c r="D4" s="26"/>
+      <c r="L4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="66"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="30"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="84" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="L5" s="63" t="s">
+      <c r="D5" s="26"/>
+      <c r="L5" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="63"/>
-      <c r="S5" s="63"/>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="85"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
+      <c r="D6" s="26"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="83"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="84" t="s">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="85"/>
-      <c r="L7" s="64" t="s">
+      <c r="D7" s="26"/>
+      <c r="L7" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="67" t="s">
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
-      <c r="U7" s="69"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="33"/>
     </row>
     <row r="14" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="50" t="s">
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="50" t="s">
+      <c r="E14" s="66"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="50" t="s">
+      <c r="H14" s="43"/>
+      <c r="I14" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="50" t="s">
+      <c r="J14" s="43"/>
+      <c r="K14" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="51"/>
-      <c r="M14" s="50" t="s">
+      <c r="L14" s="43"/>
+      <c r="M14" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="51"/>
-      <c r="O14" s="50" t="s">
+      <c r="N14" s="43"/>
+      <c r="O14" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="41" t="s">
+      <c r="P14" s="43"/>
+      <c r="Q14" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
       <c r="U14" s="3" t="s">
         <v>22</v>
       </c>
@@ -1464,310 +1464,310 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="29" t="s">
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="26" t="s">
+      <c r="E15" s="54"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="26" t="s">
+      <c r="H15" s="63"/>
+      <c r="I15" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="26" t="s">
+      <c r="J15" s="63"/>
+      <c r="K15" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="L15" s="27"/>
-      <c r="M15" s="26" t="s">
+      <c r="L15" s="63"/>
+      <c r="M15" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="N15" s="27"/>
-      <c r="O15" s="26" t="s">
+      <c r="N15" s="63"/>
+      <c r="O15" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="44" t="s">
+      <c r="P15" s="63"/>
+      <c r="Q15" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
       <c r="U15" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="V15" s="61">
+      <c r="V15" s="71">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="21" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="21" t="s">
+      <c r="H16" s="68"/>
+      <c r="I16" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="26" t="s">
+      <c r="J16" s="68"/>
+      <c r="K16" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="L16" s="27"/>
-      <c r="M16" s="26" t="s">
+      <c r="L16" s="63"/>
+      <c r="M16" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="26" t="s">
+      <c r="N16" s="63"/>
+      <c r="O16" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="44" t="s">
+      <c r="P16" s="63"/>
+      <c r="Q16" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
       <c r="U16" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="V16" s="62"/>
+      <c r="V16" s="72"/>
     </row>
     <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="21" t="s">
+      <c r="A17" s="48"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="21" t="s">
+      <c r="H17" s="68"/>
+      <c r="I17" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="26" t="s">
+      <c r="J17" s="68"/>
+      <c r="K17" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="L17" s="27"/>
-      <c r="M17" s="26" t="s">
+      <c r="L17" s="63"/>
+      <c r="M17" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="N17" s="27"/>
-      <c r="O17" s="26" t="s">
+      <c r="N17" s="63"/>
+      <c r="O17" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="44" t="s">
+      <c r="P17" s="63"/>
+      <c r="Q17" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
       <c r="U17" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="V17" s="62"/>
+      <c r="V17" s="72"/>
     </row>
     <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="21" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21" t="s">
+      <c r="H18" s="67"/>
+      <c r="I18" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="26" t="s">
+      <c r="J18" s="67"/>
+      <c r="K18" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="L18" s="27"/>
-      <c r="M18" s="26" t="s">
+      <c r="L18" s="63"/>
+      <c r="M18" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="N18" s="27"/>
-      <c r="O18" s="26" t="s">
+      <c r="N18" s="63"/>
+      <c r="O18" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="44" t="s">
+      <c r="P18" s="63"/>
+      <c r="Q18" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
       <c r="U18" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="V18" s="62"/>
+      <c r="V18" s="72"/>
     </row>
     <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="21" t="s">
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="21" t="s">
+      <c r="H19" s="68"/>
+      <c r="I19" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="26" t="s">
+      <c r="J19" s="68"/>
+      <c r="K19" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="L19" s="27"/>
-      <c r="M19" s="26" t="s">
+      <c r="L19" s="63"/>
+      <c r="M19" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="N19" s="27"/>
-      <c r="O19" s="26" t="s">
+      <c r="N19" s="63"/>
+      <c r="O19" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="44" t="s">
+      <c r="P19" s="63"/>
+      <c r="Q19" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
       <c r="U19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="V19" s="62"/>
+      <c r="V19" s="72"/>
     </row>
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
       <c r="U20" s="7"/>
-      <c r="V20" s="62"/>
+      <c r="V20" s="72"/>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
       <c r="U21" s="7"/>
-      <c r="V21" s="62"/>
+      <c r="V21" s="72"/>
     </row>
     <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
       <c r="U22" s="7"/>
-      <c r="V22" s="62"/>
+      <c r="V22" s="72"/>
     </row>
     <row r="26" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="50" t="s">
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="60"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="50" t="s">
+      <c r="E26" s="66"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="51"/>
-      <c r="I26" s="50" t="s">
+      <c r="H26" s="43"/>
+      <c r="I26" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="J26" s="51"/>
-      <c r="K26" s="50" t="s">
+      <c r="J26" s="43"/>
+      <c r="K26" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="51"/>
-      <c r="M26" s="50" t="s">
+      <c r="L26" s="43"/>
+      <c r="M26" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="51"/>
-      <c r="O26" s="50" t="s">
+      <c r="N26" s="43"/>
+      <c r="O26" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="41" t="s">
+      <c r="P26" s="43"/>
+      <c r="Q26" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="44"/>
+      <c r="T26" s="44"/>
       <c r="U26" s="3" t="s">
         <v>22</v>
       </c>
@@ -1776,244 +1776,244 @@
       </c>
     </row>
     <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="29" t="s">
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="26" t="s">
+      <c r="E27" s="54"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="H27" s="27"/>
-      <c r="I27" s="26" t="s">
+      <c r="H27" s="63"/>
+      <c r="I27" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="J27" s="27"/>
-      <c r="K27" s="26" t="s">
+      <c r="J27" s="63"/>
+      <c r="K27" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="27"/>
-      <c r="M27" s="26" t="s">
+      <c r="L27" s="63"/>
+      <c r="M27" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="N27" s="27"/>
-      <c r="O27" s="26" t="s">
+      <c r="N27" s="63"/>
+      <c r="O27" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="26" t="s">
+      <c r="P27" s="63"/>
+      <c r="Q27" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="19" t="s">
+      <c r="R27" s="85"/>
+      <c r="S27" s="85"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="V27" s="48">
+      <c r="V27" s="75">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="49"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="84"/>
+      <c r="V28" s="76"/>
     </row>
     <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
-      <c r="S29" s="44"/>
-      <c r="T29" s="44"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
       <c r="U29" s="7"/>
-      <c r="V29" s="49"/>
+      <c r="V29" s="76"/>
     </row>
     <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
-      <c r="S30" s="44"/>
-      <c r="T30" s="44"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
       <c r="U30" s="7"/>
-      <c r="V30" s="49"/>
+      <c r="V30" s="76"/>
     </row>
     <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="67"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="64"/>
       <c r="U31" s="7"/>
-      <c r="V31" s="49"/>
+      <c r="V31" s="76"/>
     </row>
     <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
-      <c r="S32" s="44"/>
-      <c r="T32" s="44"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="64"/>
       <c r="U32" s="7"/>
-      <c r="V32" s="49"/>
+      <c r="V32" s="76"/>
     </row>
     <row r="33" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44"/>
-      <c r="T33" s="44"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="64"/>
+      <c r="T33" s="64"/>
       <c r="U33" s="7"/>
-      <c r="V33" s="49"/>
+      <c r="V33" s="76"/>
     </row>
     <row r="34" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="35"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="46"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="46"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44"/>
-      <c r="T34" s="44"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="64"/>
+      <c r="T34" s="64"/>
       <c r="U34" s="7"/>
-      <c r="V34" s="49"/>
+      <c r="V34" s="76"/>
     </row>
     <row r="38" spans="1:22" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28" t="s">
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28" t="s">
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28" t="s">
+      <c r="K38" s="65"/>
+      <c r="L38" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28" t="s">
+      <c r="M38" s="65"/>
+      <c r="N38" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="O38" s="28"/>
-      <c r="P38" s="41" t="s">
+      <c r="O38" s="65"/>
+      <c r="P38" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="Q38" s="41"/>
+      <c r="Q38" s="44"/>
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
       <c r="T38" s="8" t="s">
@@ -2024,180 +2024,180 @@
       </c>
     </row>
     <row r="39" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D39" s="29" t="s">
+      <c r="D39" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="42" t="s">
+      <c r="E39" s="46"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="H39" s="30"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="26" t="s">
+      <c r="H39" s="46"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="K39" s="27"/>
-      <c r="L39" s="26" t="s">
+      <c r="K39" s="63"/>
+      <c r="L39" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="M39" s="27"/>
-      <c r="N39" s="26" t="s">
+      <c r="M39" s="63"/>
+      <c r="N39" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="O39" s="27"/>
-      <c r="P39" s="26" t="s">
+      <c r="O39" s="63"/>
+      <c r="P39" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="27"/>
+      <c r="Q39" s="63"/>
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
       <c r="T39" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="U39" s="38">
+      <c r="U39" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D40" s="32"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="21"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="22"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="49"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="67"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="68"/>
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
       <c r="T40" s="9"/>
-      <c r="U40" s="39"/>
+      <c r="U40" s="80"/>
     </row>
     <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D41" s="32"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="21" t="s">
+      <c r="D41" s="48"/>
+      <c r="E41" s="49"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="49"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="K41" s="22"/>
-      <c r="L41" s="21" t="s">
+      <c r="K41" s="68"/>
+      <c r="L41" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="M41" s="22"/>
-      <c r="N41" s="21" t="s">
+      <c r="M41" s="68"/>
+      <c r="N41" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="O41" s="22"/>
-      <c r="P41" s="23" t="s">
+      <c r="O41" s="68"/>
+      <c r="P41" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="Q41" s="22"/>
+      <c r="Q41" s="68"/>
       <c r="R41" s="11"/>
       <c r="S41" s="11"/>
       <c r="T41" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="U41" s="39"/>
+      <c r="U41" s="80"/>
     </row>
     <row r="42" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D42" s="32"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="21" t="s">
+      <c r="D42" s="48"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="K42" s="22"/>
-      <c r="L42" s="21" t="s">
+      <c r="K42" s="68"/>
+      <c r="L42" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="M42" s="22"/>
-      <c r="N42" s="21" t="s">
+      <c r="M42" s="68"/>
+      <c r="N42" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="O42" s="22"/>
-      <c r="P42" s="21" t="s">
+      <c r="O42" s="68"/>
+      <c r="P42" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="Q42" s="22"/>
+      <c r="Q42" s="68"/>
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
       <c r="T42" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="U42" s="39"/>
+      <c r="U42" s="80"/>
     </row>
     <row r="43" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D43" s="35"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="24" t="s">
+      <c r="D43" s="51"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="K43" s="25"/>
-      <c r="L43" s="24" t="s">
+      <c r="K43" s="70"/>
+      <c r="L43" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="M43" s="25"/>
-      <c r="N43" s="24" t="s">
+      <c r="M43" s="70"/>
+      <c r="N43" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="O43" s="25"/>
-      <c r="P43" s="43" t="s">
+      <c r="O43" s="70"/>
+      <c r="P43" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="Q43" s="25"/>
+      <c r="Q43" s="70"/>
       <c r="R43" s="12"/>
       <c r="S43" s="12"/>
       <c r="T43" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="U43" s="40"/>
+      <c r="U43" s="81"/>
     </row>
     <row r="46" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="4:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28" t="s">
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28" t="s">
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28" t="s">
+      <c r="K49" s="65"/>
+      <c r="L49" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28" t="s">
+      <c r="M49" s="65"/>
+      <c r="N49" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="O49" s="28"/>
-      <c r="P49" s="41" t="s">
+      <c r="O49" s="65"/>
+      <c r="P49" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="Q49" s="41"/>
+      <c r="Q49" s="44"/>
       <c r="R49" s="13" t="s">
         <v>76</v>
       </c>
@@ -2212,32 +2212,32 @@
       </c>
     </row>
     <row r="50" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D50" s="29" t="s">
+      <c r="D50" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="E50" s="30"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="42" t="s">
+      <c r="E50" s="46"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="H50" s="30"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="26" t="s">
+      <c r="H50" s="46"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="K50" s="27"/>
-      <c r="L50" s="26" t="s">
+      <c r="K50" s="63"/>
+      <c r="L50" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="M50" s="27"/>
-      <c r="N50" s="26" t="s">
+      <c r="M50" s="63"/>
+      <c r="N50" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="O50" s="27"/>
-      <c r="P50" s="26" t="s">
+      <c r="O50" s="63"/>
+      <c r="P50" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="Q50" s="27"/>
+      <c r="Q50" s="63"/>
       <c r="R50" s="11" t="s">
         <v>78</v>
       </c>
@@ -2247,89 +2247,89 @@
       <c r="T50" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="U50" s="38">
+      <c r="U50" s="79">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D51" s="32"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="22"/>
+      <c r="D51" s="48"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="49"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="67"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="67"/>
+      <c r="M51" s="68"/>
+      <c r="N51" s="67"/>
+      <c r="O51" s="68"/>
+      <c r="P51" s="67"/>
+      <c r="Q51" s="68"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
       <c r="T51" s="15"/>
-      <c r="U51" s="39"/>
+      <c r="U51" s="80"/>
     </row>
     <row r="52" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D52" s="32"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="27"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="22"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="49"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="63"/>
+      <c r="N52" s="67"/>
+      <c r="O52" s="68"/>
+      <c r="P52" s="82"/>
+      <c r="Q52" s="68"/>
       <c r="R52" s="11"/>
       <c r="S52" s="11"/>
       <c r="T52" s="15"/>
-      <c r="U52" s="39"/>
+      <c r="U52" s="80"/>
     </row>
     <row r="53" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="32"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="22"/>
+      <c r="D53" s="48"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="49"/>
+      <c r="I53" s="50"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="67"/>
+      <c r="M53" s="68"/>
+      <c r="N53" s="67"/>
+      <c r="O53" s="68"/>
+      <c r="P53" s="82"/>
+      <c r="Q53" s="68"/>
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
       <c r="T53" s="15"/>
-      <c r="U53" s="39"/>
+      <c r="U53" s="80"/>
     </row>
     <row r="54" spans="4:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D54" s="35"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="25"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="25"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="25"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="69"/>
+      <c r="M54" s="70"/>
+      <c r="N54" s="69"/>
+      <c r="O54" s="70"/>
+      <c r="P54" s="69"/>
+      <c r="Q54" s="70"/>
       <c r="R54" s="12"/>
       <c r="S54" s="12"/>
       <c r="T54" s="16"/>
-      <c r="U54" s="40"/>
+      <c r="U54" s="81"/>
     </row>
     <row r="58" spans="4:21" ht="26.25" x14ac:dyDescent="0.4">
       <c r="D58" s="4" t="s">
@@ -2344,35 +2344,145 @@
     </row>
     <row r="59" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D59" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E59" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F59" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="170">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="L5:U6"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="P7:U7"/>
-    <mergeCell ref="L1:U1"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="P3:U3"/>
-    <mergeCell ref="L4:U4"/>
+    <mergeCell ref="U27:U28"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="L52:M53"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="Q30:T30"/>
+    <mergeCell ref="O27:P28"/>
+    <mergeCell ref="Q27:T28"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F54"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="U39:U43"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="G50:I54"/>
+    <mergeCell ref="J50:K51"/>
+    <mergeCell ref="L50:M51"/>
+    <mergeCell ref="N50:O51"/>
+    <mergeCell ref="P50:Q51"/>
+    <mergeCell ref="U50:U54"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="D39:F43"/>
+    <mergeCell ref="G39:I43"/>
+    <mergeCell ref="J39:K40"/>
+    <mergeCell ref="L39:M40"/>
+    <mergeCell ref="N39:O40"/>
+    <mergeCell ref="P39:Q40"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="G27:H34"/>
+    <mergeCell ref="I27:J34"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:T33"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="V27:V34"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:T26"/>
+    <mergeCell ref="A27:C34"/>
+    <mergeCell ref="D27:F34"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:T31"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:T29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:T22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="V15:V22"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:T16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:T18"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="Q14:T14"/>
     <mergeCell ref="A15:C22"/>
@@ -2397,134 +2507,24 @@
     <mergeCell ref="O19:P19"/>
     <mergeCell ref="Q19:T19"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="V15:V22"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:T22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="V27:V34"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:T26"/>
-    <mergeCell ref="A27:C34"/>
-    <mergeCell ref="D27:F34"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:T31"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q29:T29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="G27:H34"/>
-    <mergeCell ref="I27:J34"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:T33"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="D39:F43"/>
-    <mergeCell ref="G39:I43"/>
-    <mergeCell ref="J39:K40"/>
-    <mergeCell ref="L39:M40"/>
-    <mergeCell ref="N39:O40"/>
-    <mergeCell ref="P39:Q40"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="N43:O43"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D50:F54"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="U39:U43"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="G50:I54"/>
-    <mergeCell ref="J50:K51"/>
-    <mergeCell ref="L50:M51"/>
-    <mergeCell ref="N50:O51"/>
-    <mergeCell ref="P50:Q51"/>
-    <mergeCell ref="U50:U54"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="U27:U28"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="L52:M53"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="Q30:T30"/>
-    <mergeCell ref="O27:P28"/>
-    <mergeCell ref="Q27:T28"/>
+    <mergeCell ref="L5:U6"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="P7:U7"/>
+    <mergeCell ref="L1:U1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:U3"/>
+    <mergeCell ref="L4:U4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2535,7 +2535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{790AD3B9-4823-4B60-B8CF-A0E3541D1903}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -2834,15 +2834,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D90C9683324EF4D8A0BF3FAE4BE2F3F" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c8eff4f772fa2f5ad98c2e85e0d692be">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e958125d-88d0-4a09-b1e5-988b8facc535" xmlns:ns4="7cc05052-2f0c-4475-acff-f76492f95025" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="15034b8dfb307b68934c2b961041fe08" ns3:_="" ns4:_="">
     <xsd:import namespace="e958125d-88d0-4a09-b1e5-988b8facc535"/>
@@ -3069,6 +3060,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3076,14 +3076,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED94FD3A-C074-401C-A7A6-FB135F172A23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F5A38B-0D9B-4007-A26A-9A202107C3E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3098,6 +3090,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED94FD3A-C074-401C-A7A6-FB135F172A23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
